--- a/biology/Botanique/Astragalus_baionensis/Astragalus_baionensis.xlsx
+++ b/biology/Botanique/Astragalus_baionensis/Astragalus_baionensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’astragale de Bayonne (Astragalus baionensis) est une espèce de plante herbacée vivace présente en France dans quelques départements de la côte Atlantique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'astragale de Bayonne est une plante herbacée vivace de 10 à 40 cm. Tomenteuse-blanchâtre, sa tige est grêle. Ses feuilles sont imparipennées, avec 5 à 10 paires de folioles très petites, linéaires-oblongues. Ses fleurs (12 à 14 mm) d'un bleu pâle sont disposées en grappes courtes (3 à 8 fleurs par grappe). Leur calice poilu est tubuleux, non renflé, à dents triangulaires. Les graines sont regroupées dans des gousses pubescentes-blanchâtres de 8 à 10 mm.
 </t>
@@ -542,7 +556,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'astragale de Bayonne se rencontre dans les pelouses sabulicoles maritimes. En France, elle est recensée dans six départements de la côte Atlantique : les Pyrénées-Atlantiques, les Landes, la Gironde, la Charente-Maritime, le Finistère et le Calvados. Sa pollinisation est assurée par les insectes tandis que la dissémination de ses graines s'effectue par barochorie.
 </t>
@@ -573,7 +589,9 @@
           <t>Protections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'astragale de Bayonne est protégée en France par arrêté du 20 janvier 1982.
 </t>
